--- a/FSRSurveys.API/Views/Report/FSRSurveyTemplate.xlsx
+++ b/FSRSurveys.API/Views/Report/FSRSurveyTemplate.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="ADMIN" sheetId="2" r:id="rId2"/>
+    <sheet name="ASSISTANT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="100">
   <si>
     <t>ASSOCIATE TYPE</t>
   </si>
@@ -708,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1521,4 +1522,412 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CN2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:92" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FSRSurveys.API/Views/Report/FSRSurveyTemplate.xlsx
+++ b/FSRSurveys.API/Views/Report/FSRSurveyTemplate.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="101">
   <si>
     <t>ASSOCIATE TYPE</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>VP SUPERVISOR NAME</t>
+  </si>
+  <si>
+    <t>TOTAL # OF BOARD METTINGS ATTENDED PER YEAR</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN2"/>
+  <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,89 +1138,90 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,258 +1250,260 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CB1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CC1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CE1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CH1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CK1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CL1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CM1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CN1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CO1" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
-      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1518,6 +1524,7 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN2"/>
+  <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,90 +1549,90 @@
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="32" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,258 +1661,260 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="5" t="s">
+      <c r="CB1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CC1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="5" t="s">
+      <c r="CE1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CH1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="5" t="s">
+      <c r="CI1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="5" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="5" t="s">
+      <c r="CK1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="5" t="s">
+      <c r="CL1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="5" t="s">
+      <c r="CM1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="5" t="s">
+      <c r="CN1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="5" t="s">
+      <c r="CO1" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
-      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1926,6 +1935,7 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FSRSurveys.API/Views/Report/FSRSurveyTemplate.xlsx
+++ b/FSRSurveys.API/Views/Report/FSRSurveyTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="MANAGER" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
